--- a/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01/script/m4.xlsx
+++ b/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01/script/m4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,42 +560,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pág 31</t>
+          <t>Pág 45</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+          <t>Cap. IV - Comando Operacional Conjunto</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>O Apêndice Estratégico de Mobilização Militar (AEMM) é um documento fundamental na estrutura de planejamento do EMCFA. Quem é o responsável pela sua elaboração e o que ele consolida?</t>
+          <t>De acordo com a estrutura do Comando Operacional, como é definida a "Força-Tarefa" (FT)?</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>É elaborado pela Chefia de Operações Conjuntas (CHOC) e consolida os planos de logística das Forças Auxiliares.</t>
+          <t>É uma força composta exclusivamente por elementos de uma única força singular para fins administrativos.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>É elaborado pela Subchefia de Mobilização (SUBMOB) e consolida os Planos de Mobilização Marítima, Terrestre e Aeroespacial referentes ao PEECFA.</t>
+          <t>É uma força organizada com comando próprio, para cumprimento de missão específica, com objetivos e duração limitados no tempo.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>É elaborado pelo Ministério da Economia e consolida o orçamento da defesa para os próximos cinco anos.</t>
+          <t>É uma estrutura permanente de comando que gerencia a logística nacional em tempos de paz.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>É elaborado pelos Comandos das Forças Singulares individualmente e consolida apenas as necessidades de pessoal civil.</t>
+          <t>É a força responsável exclusivamente pela defesa cibernética, sem meios adjudicados das forças singulares.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -605,7 +605,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Conforme o **item 4.1.1**, o AEMM é elaborado pela Subchefia de Mobilização (SUBMOB) e consolida os Planos de Mobilização Marítima, Terrestre e Aeroespacial referentes ao PEECFA.</t>
+          <t>Conforme o **item 4.1.3.3**, a Força-Tarefa tem comando próprio, missão específica e duração limitada no tempo.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -614,52 +614,52 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pág 32</t>
+          <t>Pág 46</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+          <t>Cap. IV - Comando Operacional Conjunto</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Durante a fase do Preparo da Mobilização, diversas ações devem ser planejadas em relação à Base Industrial de Defesa (BID). Qual das alternativas abaixo descreve corretamente uma dessas ações?</t>
+          <t>Por que a organização por "Forças Conjuntas Componentes" deve ser priorizada, sempre que possível, em relação às Forças Singulares?</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Propor a estatização imediata de todas as Empresas de Defesa (ED) para controle total do Estado.</t>
+          <t>Porque proporciona maior flexibilidade, distribuição balanceada de meios e aumenta a sinergia de emprego nas três dimensões da guerra.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Proibir a exportação de produtos de defesa para garantir o estoque nacional.</t>
+          <t>Porque garante que cada comandante conheça profundamente os meios subordinados apenas nos aspectos administrativos.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Propor a colocação de encomendas educativas nas empresas da BID, prioritariamente nas Empresas Estratégicas de Defesa (EED) e nas Empresas de Defesa (ED).</t>
+          <t>Porque reduz a necessidade de coordenação, permitindo que cada Força atue isoladamente sem interferências.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Suspender contratos com a iniciativa privada para focar na produção interna dos arsenais de guerra.</t>
+          <t>Porque simplifica a cadeia de comando ao eliminar o Nível Operacional e reportar-se diretamente ao Nível Político.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>a</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Nos termos do **item 4.3.4.1, alínea "c"**, deve-se propor a colocação de encomendas educativas nas empresas da BID, prioritariamente nas EED e nas ED.</t>
+          <t>Nos termos do **item 4.1.5**, a organização conjunta proporciona flexibilidade, equilíbrio e sinergia nas três dimensões.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -668,42 +668,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pág 33</t>
+          <t>Pág 47</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+          <t>Cap. IV - Comando Operacional Conjunto</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Qual é o objetivo da criação e manutenção de um Banco de Talentos (BT) na fase de Preparo da Mobilização?</t>
+          <t>Dentre os aspectos que o Comando Operacional Conjunto deve observar, como é definida a "Flexibilidade"?</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cadastrar apenas militares da ativa com especializações raras para missões no exterior.</t>
+          <t>Ação que visa ao entrosamento de diferentes setores para evitar duplicidade de ações.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Listar empresas estrangeiras dispostas a investir na infraestrutura nacional.</t>
+          <t>Capacidade de agir de maneira descentralizada, mantendo as características de cada Força Componente.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Cadastrar pessoas, reservistas ou não, com qualificações específicas para viabilizar convocações abrigadas pela Lei do Serviço Militar ou por Decreto de Mobilização.</t>
+          <t>Capacidade de organizar os meios para atender às diferentes fases de um plano, face aos óbices reinantes.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Registrar a propriedade intelectual de inovações tecnológicas desenvolvidas no meio civil.</t>
+          <t>Observância estrita dos preceitos da doutrina de emprego singular de cada força.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Conforme o **item 4.3.4.1, alínea "f"**, o BT serve para cadastrar pessoas, reservistas ou não, para viabilizar convocações abrigadas pela LSM ou por Decreto de Mobilização.</t>
+          <t>Conforme o **item 4.2.3, alínea 'c'**, flexibilidade é a capacidade de organizar meios para atender a diferentes fases face aos óbices.</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -722,42 +722,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pág 34</t>
+          <t>Pág 48</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+          <t>Cap. IV - Comando Operacional Conjunto</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A partir da decretação da Mobilização Nacional, inicia-se a fase de Execução. Qual medida pode ser proposta em relação às empresas que possuem capacidade de atender carências logísticas?</t>
+          <t>Qual é a diretriz doutrinária a respeito do comando direto de meios ou forças militares pelo Comandante Operacional?</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>O confisco sumário de todos os bens da empresa sem direito a indenização posterior.</t>
+          <t>Deve comandar diretamente todos os meios táticos para garantir a unidade de comando absoluta.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>A dissolução da diretoria da empresa e sua substituição por oficiais generais da reserva.</t>
+          <t>Não possui autoridade para comandar meios, limitando-se apenas ao assessoramento político.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>A eventual intervenção em empresas, em conformidade com os entendimentos realizados na fase do Preparo.</t>
+          <t>A princípio, não deverá comandar diretamente, salvo em situações temporárias e excepcionais que representem vantagens operacionais.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>A isenção total de impostos para empresas que não participam do esforço de mobilização.</t>
+          <t>Deve delegar todo o comando operacional ao Chefe do Estado-Maior Conjunto.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>De acordo com o **item 4.3.5, alínea "d"**, pode-se propor eventual intervenção em empresas que possuam capacidade de atender as carências constantes da Lista de Carências.</t>
+          <t>De acordo com o **item 4.3.4**, a princípio não deve comandar diretamente, salvo em situações excepcionais com vantagens operacionais.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -776,42 +776,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pág 35</t>
+          <t>Pág 49</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
+          <t>Cap. IV - Comando Operacional Conjunto</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Com a proximidade do fim dos motivos que determinaram a Mobilização, inicia-se a Execução da Desmobilização. Como as atividades dessa fase devem ser postas em prática e por quê?</t>
+          <t>Qual das alternativas abaixo corresponde a uma atribuição específica do Comandante Logístico Componente (C Log Cte)?</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>De forma imediata e abrupta, para cessar os gastos públicos o mais rápido possível.</t>
+          <t>Estabelecer e disseminar as Regras de Engajamento no Nível Operacional.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>De forma ordenada e gradativa, a fim de fazer face a um possível recrudescimento das ações do oponente.</t>
+          <t>Apresentar ao Comandante Operacional, para aprovação, a Lista de Necessidades Final (LNF).</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>De forma descentralizada, permitindo que cada Força Singular decida seu próprio ritmo de desmobilização.</t>
+          <t>Decidir sobre a ativação de Forças de Operações Especiais em território inimigo.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>De forma sigilosa, para evitar que a população perceba a redução do efetivo militar.</t>
+          <t>Assessorar diretamente o Ministro da Defesa sobre questões orçamentárias de longo prazo.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -821,65 +821,11 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Conforme o **item 4.3.7**, as atividades serão postas em prática de forma ordenada e gradativa, a fim de fazer face a um possível recrudescimento das ações do oponente.</t>
+          <t>Conforme o **item 4.5.1, alínea 'e'**, compete ao C Log Cte apresentar a consolidação das listas na Lista de Necessidades Final (LNF).</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>MD-41-M-03</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Pág 36</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Cap. 4 - Apêndice Estratégico de Mobilização Militar</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>No contexto do AEMM, qual é o critério temporal para que uma demanda identificada NÃO seja considerada uma carência de mobilização, mas sim parte do planejamento logístico?</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Se a demanda puder ser atendida no prazo de até 1 (um) ano.</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Se a demanda puder ser atendida no prazo de até 3 (três) anos.</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Se a demanda exigir importação de tecnologia sensível.</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Se a demanda ultrapassar o custo de 5% do orçamento anual da Defesa.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Segundo o **item 4.3.8.3**, as demandas identificadas que podem ser atendidas no prazo de até 3 (três) anos não serão consideradas carências e comporão um planejamento logístico.</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
